--- a/datos/dias_trabajados.xlsx
+++ b/datos/dias_trabajados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositorios\estadistica_agendamientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositorios\estadistica_agendamientos\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E3973E-CFD7-4FCA-A293-799F30E9E3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A35C8F-042A-4ED5-B392-BB7024F9A8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Recepcionista</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>07_02_2024</t>
+  </si>
+  <si>
+    <t>11_02_2024</t>
   </si>
 </sst>
 </file>
@@ -395,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -407,7 +410,7 @@
     <col min="3" max="3" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,8 +432,11 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -452,8 +458,11 @@
       <c r="G2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -475,8 +484,11 @@
       <c r="G3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -498,8 +510,11 @@
       <c r="G4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -521,12 +536,15 @@
       <c r="G5">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
     </row>
   </sheetData>

--- a/datos/dias_trabajados.xlsx
+++ b/datos/dias_trabajados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositorios\estadistica_agendamientos\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\Repositorios\estadistica_agendamientos\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A35C8F-042A-4ED5-B392-BB7024F9A8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B8C9A3-5393-46EF-97E9-C363008B62D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Recepcionista</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>11_02_2024</t>
+  </si>
+  <si>
+    <t>Constanza</t>
+  </si>
+  <si>
+    <t>18_02_2024</t>
   </si>
 </sst>
 </file>
@@ -398,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,7 +416,7 @@
     <col min="3" max="3" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,8 +441,11 @@
       <c r="H1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -461,8 +470,11 @@
       <c r="H2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -487,8 +499,11 @@
       <c r="H3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -513,8 +528,11 @@
       <c r="H4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -539,12 +557,40 @@
       <c r="H5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
     </row>
   </sheetData>

--- a/datos/dias_trabajados.xlsx
+++ b/datos/dias_trabajados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\Repositorios\estadistica_agendamientos\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B8C9A3-5393-46EF-97E9-C363008B62D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F8DD91-684F-4914-A840-08D7501226CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,20 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Recepcionista</t>
   </si>
   <si>
-    <t>15_01_2024</t>
-  </si>
-  <si>
-    <t>05_01_2024</t>
-  </si>
-  <si>
-    <t>18_12_2023</t>
-  </si>
-  <si>
     <t>Alejandro</t>
   </si>
   <si>
@@ -60,15 +51,6 @@
   </si>
   <si>
     <t>Felipe</t>
-  </si>
-  <si>
-    <t>21_01_2024</t>
-  </si>
-  <si>
-    <t>28_01_2024</t>
-  </si>
-  <si>
-    <t>07_02_2024</t>
   </si>
   <si>
     <t>11_02_2024</t>
@@ -404,194 +386,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>2.5</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos/dias_trabajados.xlsx
+++ b/datos/dias_trabajados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\Repositorios\estadistica_agendamientos\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F8DD91-684F-4914-A840-08D7501226CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B8C9A3-5393-46EF-97E9-C363008B62D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,11 +36,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Recepcionista</t>
   </si>
   <si>
+    <t>15_01_2024</t>
+  </si>
+  <si>
+    <t>05_01_2024</t>
+  </si>
+  <si>
+    <t>18_12_2023</t>
+  </si>
+  <si>
     <t>Alejandro</t>
   </si>
   <si>
@@ -51,6 +60,15 @@
   </si>
   <si>
     <t>Felipe</t>
+  </si>
+  <si>
+    <t>21_01_2024</t>
+  </si>
+  <si>
+    <t>28_01_2024</t>
+  </si>
+  <si>
+    <t>07_02_2024</t>
   </si>
   <si>
     <t>11_02_2024</t>
@@ -386,84 +404,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="1" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>2.5</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="F6" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos/dias_trabajados.xlsx
+++ b/datos/dias_trabajados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\Repositorios\estadistica_agendamientos\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\insta\hola\estadistica_agendamientos\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B8C9A3-5393-46EF-97E9-C363008B62D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1A425F-B50A-4172-8722-EA4A0A8318F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="4185" windowWidth="11865" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Recepcionista</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>11_02_2024</t>
-  </si>
-  <si>
-    <t>Constanza</t>
   </si>
   <si>
     <t>18_02_2024</t>
@@ -407,16 +404,16 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="1" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,10 +439,10 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -474,7 +471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -503,7 +500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -532,7 +529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -561,36 +558,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
     </row>
   </sheetData>

--- a/datos/dias_trabajados.xlsx
+++ b/datos/dias_trabajados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\Repositorios\estadistica_agendamientos\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F8DD91-684F-4914-A840-08D7501226CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71F0B2B-8CBC-4A58-8AD1-3215496F3AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Recepcionista</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>18_02_2024</t>
+  </si>
+  <si>
+    <t>25_02_2024</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -407,6 +410,9 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -418,6 +424,9 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -429,6 +438,9 @@
       <c r="C3">
         <v>5</v>
       </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -440,6 +452,9 @@
       <c r="C4">
         <v>3</v>
       </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -451,6 +466,9 @@
       <c r="C5">
         <v>4</v>
       </c>
+      <c r="D5">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -462,7 +480,9 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
   </sheetData>

--- a/datos/dias_trabajados.xlsx
+++ b/datos/dias_trabajados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\Repositorios\estadistica_agendamientos\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71F0B2B-8CBC-4A58-8AD1-3215496F3AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1816DAF-88A7-4E27-AAD3-C594CB7B2796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -106,9 +106,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,12 +393,13 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -413,6 +415,9 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
+      <c r="E1" s="2">
+        <v>45354</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -427,6 +432,9 @@
       <c r="D2">
         <v>5</v>
       </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -441,6 +449,9 @@
       <c r="D3">
         <v>5</v>
       </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -453,6 +464,9 @@
         <v>3</v>
       </c>
       <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
     </row>
@@ -469,6 +483,9 @@
       <c r="D5">
         <v>1.2</v>
       </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -482,6 +499,9 @@
       </c>
       <c r="D6" s="1">
         <v>4</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
       </c>
       <c r="F6" s="1"/>
     </row>

--- a/datos/dias_trabajados.xlsx
+++ b/datos/dias_trabajados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\Repositorios\estadistica_agendamientos\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1816DAF-88A7-4E27-AAD3-C594CB7B2796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9B4361-C1C0-4B91-B6FE-A094CA7C2C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Recepcionista</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>25_02_2024</t>
+  </si>
+  <si>
+    <t>03_03_2024</t>
   </si>
 </sst>
 </file>
@@ -393,7 +396,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,8 +418,8 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2">
-        <v>45354</v>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">

--- a/datos/dias_trabajados.xlsx
+++ b/datos/dias_trabajados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\Repositorios\estadistica_agendamientos\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9B4361-C1C0-4B91-B6FE-A094CA7C2C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD31A32-5E05-45DE-B011-A2AE266049FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Recepcionista</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>03_03_2024</t>
+  </si>
+  <si>
+    <t>11_03_2024</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,6 +424,9 @@
       <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -438,6 +444,9 @@
       <c r="E2">
         <v>5</v>
       </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -455,6 +464,9 @@
       <c r="E3">
         <v>5</v>
       </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -471,6 +483,9 @@
       </c>
       <c r="E4">
         <v>3</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -489,6 +504,9 @@
       <c r="E5">
         <v>2</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -506,7 +524,9 @@
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos/dias_trabajados.xlsx
+++ b/datos/dias_trabajados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\Repositorios\estadistica_agendamientos\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD31A32-5E05-45DE-B011-A2AE266049FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F1E4C5-B646-45B5-A330-D6678EEC62AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Recepcionista</t>
   </si>
@@ -50,18 +50,9 @@
     <t>Betty</t>
   </si>
   <si>
-    <t>Felipe</t>
-  </si>
-  <si>
-    <t>11_02_2024</t>
-  </si>
-  <si>
     <t>Constanza</t>
   </si>
   <si>
-    <t>18_02_2024</t>
-  </si>
-  <si>
     <t>25_02_2024</t>
   </si>
   <si>
@@ -69,6 +60,9 @@
   </si>
   <si>
     <t>11_03_2024</t>
+  </si>
+  <si>
+    <t>17_03_2024</t>
   </si>
 </sst>
 </file>
@@ -396,47 +390,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -444,88 +435,56 @@
       <c r="E2">
         <v>5</v>
       </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" s="1">
+        <v>4</v>
       </c>
       <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>1.2</v>
-      </c>
       <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/datos/dias_trabajados.xlsx
+++ b/datos/dias_trabajados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\Repositorios\estadistica_agendamientos\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F1E4C5-B646-45B5-A330-D6678EEC62AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83241BC0-9EF2-4734-BEBA-563DD652A7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Recepcionista</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>17_03_2024</t>
+  </si>
+  <si>
+    <t>25_03_2024</t>
   </si>
 </sst>
 </file>
@@ -390,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,7 +405,7 @@
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,8 +421,11 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -435,8 +441,11 @@
       <c r="E2">
         <v>5</v>
       </c>
+      <c r="F2" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -452,8 +461,11 @@
       <c r="E3">
         <v>5</v>
       </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -469,8 +481,11 @@
       <c r="E4">
         <v>3</v>
       </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -485,9 +500,13 @@
       </c>
       <c r="E5">
         <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>